--- a/biology/Botanique/Hymenophyllum_caudiculatum/Hymenophyllum_caudiculatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_caudiculatum/Hymenophyllum_caudiculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum caudiculatum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 son rhizome est long et filiforme, glabre ;
@@ -546,22 +560,24 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hymenophyllum caudiculatum appartient au sous-genre Globosa.
-Cette espèce est décrite par Karl Friedrich Philipp von Martius en 1834 à partir d'un exemplaire récolté au Brésil sur les rives du Japurá (affluent de l'Amazone)[1]. Quelques années plus tard, dans Flora Brasiliensis (en référence), il en site deux synonymes : Hymenophyllum dilatatum Spreng. - homonyme de Hymenophyllum dilatatum (Forst.) Sw. - et Hymenophyllum schottii Pohl.
-En 1843, Karel Bořivoj Presl place cette espèce dans le genre Sphaerocionium, section Glabra : Sphaerocionium caudiculatum (Mart.) C.Presl[2]. Il décrit aussi une autre espèce - Sphaerocionium productum - qui sera identifiée comme une simple variété par Carl Frederik Albert Christensen.
-En 1875, Karl Anton Eugen Prantl la place dans la section Globosa du genre Hymenophyllum[3].
-En 1938, Edwin Bingham Copeland la transfère dans le genre Mecodium : Mecodium caudiculatum (Mart.) Copel.[4].
-En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Mecodium, section Mecodium, sous-section Mecodium[5].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Hymenophyllum caudiculatum comme espèce représentative du genre Hymenophyllum, sous-genre Globosa[6].
+Cette espèce est décrite par Karl Friedrich Philipp von Martius en 1834 à partir d'un exemplaire récolté au Brésil sur les rives du Japurá (affluent de l'Amazone). Quelques années plus tard, dans Flora Brasiliensis (en référence), il en site deux synonymes : Hymenophyllum dilatatum Spreng. - homonyme de Hymenophyllum dilatatum (Forst.) Sw. - et Hymenophyllum schottii Pohl.
+En 1843, Karel Bořivoj Presl place cette espèce dans le genre Sphaerocionium, section Glabra : Sphaerocionium caudiculatum (Mart.) C.Presl. Il décrit aussi une autre espèce - Sphaerocionium productum - qui sera identifiée comme une simple variété par Carl Frederik Albert Christensen.
+En 1875, Karl Anton Eugen Prantl la place dans la section Globosa du genre Hymenophyllum.
+En 1938, Edwin Bingham Copeland la transfère dans le genre Mecodium : Mecodium caudiculatum (Mart.) Copel..
+En 1968, Conrad Vernon Morton la replace dans le genre Hymenophyllum, sous-genre Mecodium, section Mecodium, sous-section Mecodium.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Hymenophyllum caudiculatum comme espèce représentative du genre Hymenophyllum, sous-genre Globosa.
 Elle compte donc les synonymes suivants :
 Mecodium caudiculatum (Mart.) Copel.
 Hymenophyllum schottii Pohl
 Sphaerocionium caudiculatum (Mart.) C.Presl
 Deux variétés sont répertoriées, avec elles aussi de nombreux synonymes :
 Hymenophyllum caudiculatum var. caudatum (Bosch) Hook. &amp; Baker (1866) - Synonyme : Hymenophyllum caudatum Bosch
-Hymenophyllum caudiculatum var. productum (C.Presl) C.Chr. (1916) - Synonymes : Hymenophyllum patagonicum Gand., Hymenophyllum productum (C.Presl) J.W.Sturm[7], Mecodium caudiculatum f. productum (C.Presl) G.Kunkel, Sphaerocionium productum C.Presl</t>
+Hymenophyllum caudiculatum var. productum (C.Presl) C.Chr. (1916) - Synonymes : Hymenophyllum patagonicum Gand., Hymenophyllum productum (C.Presl) J.W.Sturm, Mecodium caudiculatum f. productum (C.Presl) G.Kunkel, Sphaerocionium productum C.Presl</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans toute la zone tropicale d'Amérique du Sud et principalement du Brésil et du Chili.
 Cette espèce est plutôt terrestre, souvent à la base des troncs d'arbre.
